--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1379.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1379.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.268130109224818</v>
+        <v>1.216187119483948</v>
       </c>
       <c r="B1">
-        <v>2.529597295278679</v>
+        <v>2.450452327728271</v>
       </c>
       <c r="C1">
-        <v>3.353722645425996</v>
+        <v>7.247153759002686</v>
       </c>
       <c r="D1">
-        <v>3.200664681786613</v>
+        <v>2.255217552185059</v>
       </c>
       <c r="E1">
-        <v>1.094559464150816</v>
+        <v>1.163832068443298</v>
       </c>
     </row>
   </sheetData>
